--- a/neuralScripts/miniTest.xlsx
+++ b/neuralScripts/miniTest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuancecommunications-my.sharepoint.com/personal/donald_burbano_nuance_com/Documents/audioMover/neuralScripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gr4yf1r3/testSites/tts-website/neuralScripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD3D922-0460-E64E-81B8-BB4B8F214AC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FC45B1D-0389-B445-80A8-8D3D06B3A9ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="15120" windowHeight="17800" xr2:uid="{2F87E8F2-B5C0-1445-BB2D-8B1974D8147A}"/>
   </bookViews>
@@ -479,16 +479,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9803FABF-5250-BA44-A88F-B5B1A3D4AB33}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B5" sqref="A5:XFD30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="99.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="73.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="68.5" style="2" customWidth="1"/>
     <col min="6" max="7" width="10.83203125" style="1"/>
     <col min="8" max="9" width="0" style="1" hidden="1" customWidth="1"/>
